--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntf5</t>
+  </si>
+  <si>
+    <t>Ngfr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntf5</t>
-  </si>
-  <si>
-    <t>Ngfr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H2">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I2">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J2">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N2">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O2">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P2">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q2">
-        <v>0.029413932279</v>
+        <v>0.01035530791111111</v>
       </c>
       <c r="R2">
-        <v>0.264725390511</v>
+        <v>0.0931977712</v>
       </c>
       <c r="S2">
-        <v>0.004153387198091444</v>
+        <v>0.003408790621725776</v>
       </c>
       <c r="T2">
-        <v>0.006160356429623637</v>
+        <v>0.005803123267891295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H3">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I3">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J3">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.271551</v>
       </c>
       <c r="O3">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P3">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q3">
-        <v>0.015179972451</v>
+        <v>0.01155962434666667</v>
       </c>
       <c r="R3">
-        <v>0.136619752059</v>
+        <v>0.10403661912</v>
       </c>
       <c r="S3">
-        <v>0.002143484340935176</v>
+        <v>0.003805231037245155</v>
       </c>
       <c r="T3">
-        <v>0.003179243088037965</v>
+        <v>0.006478023211868573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H4">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I4">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J4">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N4">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O4">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P4">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q4">
-        <v>2.344172155251</v>
+        <v>0.02779352553777778</v>
       </c>
       <c r="R4">
-        <v>14.065032931506</v>
+        <v>0.25014172984</v>
       </c>
       <c r="S4">
-        <v>0.3310082625944273</v>
+        <v>0.00914915423192926</v>
       </c>
       <c r="T4">
-        <v>0.3273037614005175</v>
+        <v>0.01557551510099935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.167703</v>
+        <v>0.1277066666666667</v>
       </c>
       <c r="H5">
-        <v>0.503109</v>
+        <v>0.38312</v>
       </c>
       <c r="I5">
-        <v>0.3386746620550473</v>
+        <v>0.1657851361976475</v>
       </c>
       <c r="J5">
-        <v>0.3386746620550473</v>
+        <v>0.1974405699349423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N5">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O5">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P5">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q5">
-        <v>0.009698879401000001</v>
+        <v>0.4539177026</v>
       </c>
       <c r="R5">
-        <v>0.087289914609</v>
+        <v>2.7235062156</v>
       </c>
       <c r="S5">
-        <v>0.001369527921593343</v>
+        <v>0.1494219603067473</v>
       </c>
       <c r="T5">
-        <v>0.00203130113686812</v>
+        <v>0.1695839083541831</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.04909466666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H6">
-        <v>0.147284</v>
+        <v>0.741022</v>
       </c>
       <c r="I6">
-        <v>0.09914622661513824</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J6">
-        <v>0.09914622661513824</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N6">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O6">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P6">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q6">
-        <v>0.008610860870666667</v>
+        <v>0.03004350195333333</v>
       </c>
       <c r="R6">
-        <v>0.077497747836</v>
+        <v>0.18026101172</v>
       </c>
       <c r="S6">
-        <v>0.001215894527992344</v>
+        <v>0.009889808065720184</v>
       </c>
       <c r="T6">
-        <v>0.001803430144125205</v>
+        <v>0.0112242691851622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,19 +847,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.04909466666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H7">
-        <v>0.147284</v>
+        <v>0.741022</v>
       </c>
       <c r="I7">
-        <v>0.09914622661513824</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J7">
-        <v>0.09914622661513824</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -874,22 +874,22 @@
         <v>0.271551</v>
       </c>
       <c r="O7">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P7">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q7">
-        <v>0.004443901942666667</v>
+        <v>0.033537544187</v>
       </c>
       <c r="R7">
-        <v>0.039995117484</v>
+        <v>0.201225265122</v>
       </c>
       <c r="S7">
-        <v>0.0006275000997205307</v>
+        <v>0.01103998713333216</v>
       </c>
       <c r="T7">
-        <v>0.000930716085338532</v>
+        <v>0.01252964532393317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.04909466666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H8">
-        <v>0.147284</v>
+        <v>0.741022</v>
       </c>
       <c r="I8">
-        <v>0.09914622661513824</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J8">
-        <v>0.09914622661513824</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N8">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O8">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P8">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q8">
-        <v>0.6862509947426666</v>
+        <v>0.08063640849233333</v>
       </c>
       <c r="R8">
-        <v>4.117505968455999</v>
+        <v>0.483818450954</v>
       </c>
       <c r="S8">
-        <v>0.09690190584536876</v>
+        <v>0.02654412938734346</v>
       </c>
       <c r="T8">
-        <v>0.09581742166034363</v>
+        <v>0.03012580745242415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +965,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.04909466666666667</v>
+        <v>0.370511</v>
       </c>
       <c r="H9">
-        <v>0.147284</v>
+        <v>0.741022</v>
       </c>
       <c r="I9">
-        <v>0.09914622661513824</v>
+        <v>0.4809867660085082</v>
       </c>
       <c r="J9">
-        <v>0.09914622661513824</v>
+        <v>0.3818850647690823</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N9">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O9">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P9">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q9">
-        <v>0.002839324587111111</v>
+        <v>1.3169359619025</v>
       </c>
       <c r="R9">
-        <v>0.025553921284</v>
+        <v>5.26774384761</v>
       </c>
       <c r="S9">
-        <v>0.0004009261420566</v>
+        <v>0.4335128414221124</v>
       </c>
       <c r="T9">
-        <v>0.0005946587253308611</v>
+        <v>0.3280053428075629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2783766666666667</v>
+        <v>0.2720966666666667</v>
       </c>
       <c r="H10">
-        <v>0.8351299999999999</v>
+        <v>0.81629</v>
       </c>
       <c r="I10">
-        <v>0.5621791113298145</v>
+        <v>0.3532280977938443</v>
       </c>
       <c r="J10">
-        <v>0.5621791113298145</v>
+        <v>0.4206743652959753</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.175393</v>
+        <v>0.08108666666666665</v>
       </c>
       <c r="N10">
-        <v>0.526179</v>
+        <v>0.24326</v>
       </c>
       <c r="O10">
-        <v>0.01226364905153833</v>
+        <v>0.02056149724823249</v>
       </c>
       <c r="P10">
-        <v>0.01818959939974</v>
+        <v>0.02939174694341418</v>
       </c>
       <c r="Q10">
-        <v>0.04882531869666666</v>
+        <v>0.02206341171111111</v>
       </c>
       <c r="R10">
-        <v>0.4394278682699999</v>
+        <v>0.1985707054</v>
       </c>
       <c r="S10">
-        <v>0.006894367325454539</v>
+        <v>0.007262898560786527</v>
       </c>
       <c r="T10">
-        <v>0.01022581282599116</v>
+        <v>0.01236435449036068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2783766666666667</v>
+        <v>0.2720966666666667</v>
       </c>
       <c r="H11">
-        <v>0.8351299999999999</v>
+        <v>0.81629</v>
       </c>
       <c r="I11">
-        <v>0.5621791113298145</v>
+        <v>0.3532280977938443</v>
       </c>
       <c r="J11">
-        <v>0.5621791113298145</v>
+        <v>0.4206743652959753</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1122,22 +1122,22 @@
         <v>0.271551</v>
       </c>
       <c r="O11">
-        <v>0.006329036627448615</v>
+        <v>0.02295278771378271</v>
       </c>
       <c r="P11">
-        <v>0.009387307183674752</v>
+        <v>0.03280999043916413</v>
       </c>
       <c r="Q11">
-        <v>0.02519782073666667</v>
+        <v>0.02462937397666667</v>
       </c>
       <c r="R11">
-        <v>0.22678038663</v>
+        <v>0.22166436579</v>
       </c>
       <c r="S11">
-        <v>0.003558052186792909</v>
+        <v>0.008107569543205387</v>
       </c>
       <c r="T11">
-        <v>0.005277348010298256</v>
+        <v>0.01380232190336239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2783766666666667</v>
+        <v>0.2720966666666667</v>
       </c>
       <c r="H12">
-        <v>0.8351299999999999</v>
+        <v>0.81629</v>
       </c>
       <c r="I12">
-        <v>0.5621791113298145</v>
+        <v>0.3532280977938443</v>
       </c>
       <c r="J12">
-        <v>0.5621791113298145</v>
+        <v>0.4206743652959753</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>13.978117</v>
+        <v>0.2176356666666667</v>
       </c>
       <c r="N12">
-        <v>27.956234</v>
+        <v>0.652907</v>
       </c>
       <c r="O12">
-        <v>0.9773635281302092</v>
+        <v>0.05518681856388939</v>
       </c>
       <c r="P12">
-        <v>0.9664252985873458</v>
+        <v>0.07888710565478799</v>
       </c>
       <c r="Q12">
-        <v>3.891181616736666</v>
+        <v>0.05921793944777778</v>
       </c>
       <c r="R12">
-        <v>23.34708970042</v>
+        <v>0.53296145503</v>
       </c>
       <c r="S12">
-        <v>0.5494533596904131</v>
+        <v>0.01949353494461666</v>
       </c>
       <c r="T12">
-        <v>0.5433041155264847</v>
+        <v>0.03318578310136448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,46 +1222,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2783766666666667</v>
+        <v>0.2720966666666667</v>
       </c>
       <c r="H13">
-        <v>0.8351299999999999</v>
+        <v>0.81629</v>
       </c>
       <c r="I13">
-        <v>0.5621791113298145</v>
+        <v>0.3532280977938443</v>
       </c>
       <c r="J13">
-        <v>0.5621791113298145</v>
+        <v>0.4206743652959753</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05783366666666667</v>
+        <v>3.5543775</v>
       </c>
       <c r="N13">
-        <v>0.173501</v>
+        <v>7.108755</v>
       </c>
       <c r="O13">
-        <v>0.004043786190803798</v>
+        <v>0.9012988964740954</v>
       </c>
       <c r="P13">
-        <v>0.005997794829239271</v>
+        <v>0.8589111569626339</v>
       </c>
       <c r="Q13">
-        <v>0.01609954334777778</v>
+        <v>0.9671342698250001</v>
       </c>
       <c r="R13">
-        <v>0.14489589013</v>
+        <v>5.80280561895</v>
       </c>
       <c r="S13">
-        <v>0.002273332127153855</v>
+        <v>0.3183640947452357</v>
       </c>
       <c r="T13">
-        <v>0.00337183496704029</v>
+        <v>0.3613219058008879</v>
       </c>
     </row>
   </sheetData>
